--- a/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ EP _ 4 yr.xlsx
+++ b/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ EP _ 4 yr.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1996-1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2023</t>
+    <t xml:space="preserve">1995-1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="D2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E2" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F2" t="n">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C3" t="n">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D3" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E3" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F3" t="n">
+        <v>150</v>
+      </c>
+      <c r="G3" t="n">
         <v>122</v>
       </c>
-      <c r="G3" t="n">
-        <v>101</v>
-      </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
